--- a/db/DbSpecifications.xlsx
+++ b/db/DbSpecifications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Program\C#\HouseholdAccountBook\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A822A7FA-2C39-4693-99C3-A5784585502C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208C8186-284C-49C0-97CE-1EED81C55706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13770" windowHeight="7365" tabRatio="869" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="345" windowWidth="16575" windowHeight="11985" tabRatio="869" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -753,17 +753,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0：移動
-1：繰返し</t>
-    <rPh sb="2" eb="4">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>クリカエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>remark</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1152,6 +1141,21 @@
   </si>
   <si>
     <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：移動
+1：繰返し
+2：リスト登録</t>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クリカエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1591,13 +1595,13 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
         <v>189</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>190</v>
-      </c>
-      <c r="D5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
@@ -1709,7 +1713,7 @@
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
@@ -1723,10 +1727,10 @@
         <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
@@ -1734,24 +1738,24 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
         <v>76</v>
@@ -1759,10 +1763,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
@@ -1770,13 +1774,13 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" t="s">
         <v>210</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>211</v>
-      </c>
-      <c r="D7" t="s">
-        <v>212</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -1791,13 +1795,13 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -1805,7 +1809,7 @@
         <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -1819,7 +1823,7 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -1827,10 +1831,10 @@
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -1873,7 +1877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1910,7 +1914,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
         <v>94</v>
@@ -1919,7 +1923,7 @@
         <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
@@ -1936,18 +1940,18 @@
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" t="s">
         <v>210</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>211</v>
-      </c>
-      <c r="D5" t="s">
-        <v>212</v>
       </c>
       <c r="F5" t="s">
         <v>60</v>
@@ -1962,13 +1966,13 @@
         <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -1976,7 +1980,7 @@
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
         <v>78</v>
@@ -1987,7 +1991,7 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
@@ -2001,7 +2005,7 @@
         <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -2009,10 +2013,10 @@
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2083,7 @@
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
@@ -2096,7 +2100,7 @@
         <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
@@ -2110,7 +2114,7 @@
         <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
@@ -2124,7 +2128,7 @@
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -2138,7 +2142,7 @@
         <v>52</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -2155,33 +2159,33 @@
         <v>60</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
         <v>201</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>202</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>203</v>
-      </c>
-      <c r="F8" t="s">
-        <v>204</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" t="s">
         <v>210</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>211</v>
-      </c>
-      <c r="D9" t="s">
-        <v>212</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -2202,7 +2206,7 @@
         <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="27" x14ac:dyDescent="0.15">
@@ -2219,7 +2223,7 @@
         <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -2313,7 +2317,7 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
@@ -2321,7 +2325,7 @@
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
         <v>74</v>
@@ -2330,7 +2334,7 @@
         <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
@@ -2344,7 +2348,7 @@
         <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="27" x14ac:dyDescent="0.15">
@@ -2352,7 +2356,7 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
         <v>76</v>
@@ -2362,18 +2366,18 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" t="s">
         <v>210</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>211</v>
-      </c>
-      <c r="D6" t="s">
-        <v>212</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
@@ -2394,7 +2398,7 @@
         <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="27" x14ac:dyDescent="0.15">
@@ -2412,7 +2416,7 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -2501,7 +2505,7 @@
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
@@ -2518,7 +2522,7 @@
         <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
@@ -2532,7 +2536,7 @@
         <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
@@ -2546,7 +2550,7 @@
         <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="27" x14ac:dyDescent="0.15">
@@ -2565,27 +2569,27 @@
     </row>
     <row r="7" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" t="s">
         <v>185</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>186</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" t="s">
         <v>210</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>211</v>
-      </c>
-      <c r="D8" t="s">
-        <v>212</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -2606,7 +2610,7 @@
         <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="27" x14ac:dyDescent="0.15">
@@ -2623,7 +2627,7 @@
         <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -2731,7 +2735,7 @@
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
@@ -2748,7 +2752,7 @@
         <v>111</v>
       </c>
       <c r="I3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
@@ -2762,7 +2766,7 @@
         <v>112</v>
       </c>
       <c r="I4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
@@ -2776,7 +2780,7 @@
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
@@ -2790,7 +2794,7 @@
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -2804,18 +2808,18 @@
         <v>113</v>
       </c>
       <c r="I7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F8" t="s">
         <v>90</v>
@@ -2823,16 +2827,16 @@
     </row>
     <row r="9" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="C9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -2849,7 +2853,7 @@
         <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -2866,18 +2870,18 @@
         <v>127</v>
       </c>
       <c r="I11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" t="s">
         <v>210</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>211</v>
-      </c>
-      <c r="D12" t="s">
-        <v>212</v>
       </c>
       <c r="F12" t="s">
         <v>60</v>
@@ -2898,7 +2902,7 @@
         <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -2955,13 +2959,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
@@ -2998,7 +3003,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>132</v>
       </c>
@@ -3009,7 +3014,7 @@
         <v>52</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
@@ -3028,13 +3033,13 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" t="s">
         <v>210</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>211</v>
-      </c>
-      <c r="D6" t="s">
-        <v>212</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
@@ -3102,6 +3107,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3147,13 +3153,13 @@
         <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
@@ -3161,35 +3167,35 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
         <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" t="s">
         <v>195</v>
-      </c>
-      <c r="D5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" t="s">
         <v>210</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>211</v>
-      </c>
-      <c r="D6" t="s">
-        <v>212</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>

--- a/db/DbSpecifications.xlsx
+++ b/db/DbSpecifications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Program\C#\HouseholdAccountBook\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208C8186-284C-49C0-97CE-1EED81C55706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078A0B3B-0A8B-4AE4-8E4D-AFD58F88E5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="345" windowWidth="16575" windowHeight="11985" tabRatio="869" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="869" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -1112,26 +1112,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0：未分類
-1：財布
-2：銀行口座
-3：クレジットカード
-4：株式</t>
-    <rPh sb="2" eb="5">
-      <t>ミブンルイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サイフ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>ギンコウコウザ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カブシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JsonCode</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1155,6 +1135,26 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：未分類
+1：財布
+2：銀行口座
+3：クレジットカード
+4：証券口座</t>
+    <rPh sb="2" eb="5">
+      <t>ミブンルイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイフ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ギンコウコウザ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>ショウケンコウザ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1244,7 +1244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1261,9 +1261,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
@@ -1552,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1572,7 +1569,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
@@ -1583,7 +1580,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
@@ -1594,7 +1591,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C5" t="s">
@@ -1605,7 +1602,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
@@ -1616,7 +1613,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
@@ -1627,7 +1624,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
@@ -1638,7 +1635,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
@@ -1649,7 +1646,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
@@ -1774,13 +1771,13 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" t="s">
         <v>209</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>210</v>
-      </c>
-      <c r="D7" t="s">
-        <v>211</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -1945,13 +1942,13 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" t="s">
         <v>209</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>210</v>
-      </c>
-      <c r="D5" t="s">
-        <v>211</v>
       </c>
       <c r="F5" t="s">
         <v>60</v>
@@ -2049,7 +2046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2142,7 +2141,7 @@
         <v>52</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -2179,13 +2178,13 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" t="s">
         <v>209</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>210</v>
-      </c>
-      <c r="D9" t="s">
-        <v>211</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -2316,7 +2315,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
+      <c r="I2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2371,13 +2370,13 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" t="s">
         <v>209</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>210</v>
-      </c>
-      <c r="D6" t="s">
-        <v>211</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
@@ -2583,13 +2582,13 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" t="s">
         <v>209</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>210</v>
-      </c>
-      <c r="D8" t="s">
-        <v>211</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -2875,13 +2874,13 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" t="s">
         <v>209</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>210</v>
-      </c>
-      <c r="D12" t="s">
-        <v>211</v>
       </c>
       <c r="F12" t="s">
         <v>60</v>
@@ -2959,7 +2958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3014,7 +3013,7 @@
         <v>52</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
@@ -3033,13 +3032,13 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" t="s">
         <v>209</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>210</v>
-      </c>
-      <c r="D6" t="s">
-        <v>211</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
@@ -3189,13 +3188,13 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" t="s">
         <v>209</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>210</v>
-      </c>
-      <c r="D6" t="s">
-        <v>211</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
